--- a/Sense Demo materials/SlideGenerator/presentation master data.xlsx
+++ b/Sense Demo materials/SlideGenerator/presentation master data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="18195" windowHeight="7740"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="18195" windowHeight="7740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="presenstation to product map" sheetId="1" r:id="rId1"/>
+    <sheet name="Workshops compact" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
   <si>
     <t>Presentation name</t>
   </si>
@@ -124,6 +125,57 @@
   </si>
   <si>
     <t>QAP</t>
+  </si>
+  <si>
+    <t>Workshop</t>
+  </si>
+  <si>
+    <t>Workshop compact</t>
+  </si>
+  <si>
+    <t>Business Analyst</t>
+  </si>
+  <si>
+    <t>C-Level - non-technical</t>
+  </si>
+  <si>
+    <t>CTO</t>
+  </si>
+  <si>
+    <t>Deep dive</t>
+  </si>
+  <si>
+    <t>Exercises</t>
+  </si>
+  <si>
+    <t>Hosting Ops</t>
+  </si>
+  <si>
+    <t>Integration summary</t>
+  </si>
+  <si>
+    <t>Introduction - 30 minutes</t>
+  </si>
+  <si>
+    <t>PreSales</t>
+  </si>
+  <si>
+    <t>Product Owner</t>
+  </si>
+  <si>
+    <t>Random slides</t>
+  </si>
+  <si>
+    <t>Technical - 1 day</t>
+  </si>
+  <si>
+    <t>Technical - 1 hour</t>
+  </si>
+  <si>
+    <t>Technical - 2 hours</t>
+  </si>
+  <si>
+    <t>What is this slide generator?</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1255,4 +1307,138 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" ref="B5:B16" si="0">A5</f>
+        <v>Deep dive</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>Exercises</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>Integration summary</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>Introduction - 30 minutes</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>PreSales</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>Technical - 1 day</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>Technical - 1 hour</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>Technical - 2 hours</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>What is this slide generator?</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Sense Demo materials/SlideGenerator/presentation master data.xlsx
+++ b/Sense Demo materials/SlideGenerator/presentation master data.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qlikexternal\Documents\GitHub\QRSMeteor\Sense Demo materials\SlideGenerator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\QRSMeteor\Sense Demo materials\SlideGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544B49AC-D58C-44B0-B206-D3CCF90D5423}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="18195" windowHeight="7740" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="presenstation to product map" sheetId="1" r:id="rId1"/>
     <sheet name="Workshops compact" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t>Presentation name</t>
   </si>
@@ -145,9 +156,6 @@
     <t>Deep dive</t>
   </si>
   <si>
-    <t>Exercises</t>
-  </si>
-  <si>
     <t>Hosting Ops</t>
   </si>
   <si>
@@ -157,9 +165,6 @@
     <t>Introduction - 30 minutes</t>
   </si>
   <si>
-    <t>PreSales</t>
-  </si>
-  <si>
     <t>Product Owner</t>
   </si>
   <si>
@@ -175,13 +180,13 @@
     <t>Technical - 2 hours</t>
   </si>
   <si>
-    <t>What is this slide generator?</t>
+    <t>Multiple days</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -722,15 +727,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C21" totalsRowShown="0">
-  <autoFilter ref="A1:C21"/>
-  <sortState ref="A2:C21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C21" totalsRowShown="0">
+  <autoFilter ref="A1:C21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C21">
     <sortCondition ref="B2"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Presentation name"/>
-    <tableColumn id="2" name="Product"/>
-    <tableColumn id="3" name="Product category"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Presentation name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Product"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Product category"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1056,7 +1061,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1310,14 +1315,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B16"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1346,24 +1355,20 @@
       <c r="A5" t="s">
         <v>40</v>
       </c>
-      <c r="B5" t="str">
-        <f t="shared" ref="B5:B16" si="0">A5</f>
-        <v>Deep dive</v>
-      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>Exercises</v>
-      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
+      <c r="B7" t="str">
+        <f t="shared" ref="B5:B14" si="0">A7</f>
+        <v>Integration summary</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1371,71 +1376,53 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>Integration summary</v>
+        <v>Introduction - 30 minutes</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>Introduction - 30 minutes</v>
+        <v>Multiple days</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>PreSales</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>Technical - 1 day</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>Technical - 1 day</v>
+        <v>Technical - 1 hour</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>Technical - 1 hour</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" t="str">
-        <f t="shared" si="0"/>
         <v>Technical - 2 hours</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>What is this slide generator?</v>
       </c>
     </row>
   </sheetData>
